--- a/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
+++ b/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.874293626014635</v>
+        <v>0.125706373985365</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.986471766536047</v>
+        <v>0.013528233463953</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.600467919509348</v>
+        <v>0.399532080490652</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.22291033734085</v>
+        <v>0.77708966265915</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,912 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.994699767360106</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.152173913043478</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.398550724637681</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0229188454298264</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.005506214504464</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.046506824362795</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.7297113574566</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00572738964366</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.87248322147651</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0499158064279963</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0919622331691296</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0134833543933662</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.480421621058674</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.582654496228753</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0002066478076379</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001683337507225</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.894888315918464</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0066666666666666</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.753333333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>376</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-8.80120481927711</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-23.6592763297429</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.98852170163747</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2.3407459625737</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.383603521734646</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.492957746478873</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6338028169014081</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0104350001207981</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7.4430629701895e-05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.864499189416274</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.537414965986395</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0066532607099722</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0024420604738278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0149081632653058</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0818359250919093</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.139100322998483</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.131386861313869</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.562043795620438</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0004300431711146</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0015571892365359</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.614347387306571</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.348957934159712</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.00091547343787</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.003625517332146</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0066469517743403</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.179504595660793</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0603115222896619</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0066666666666666</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.546666666666667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0008822463768115</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0017992610837438</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.74702252833979</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pongaroa at d/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.573974037599294</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.973154362416107</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0279885057471264</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.257598185054437</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.310848894858951</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.182931410111937</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1870776.934</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5506391.518</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
+++ b/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.766972404849504</v>
+        <v>0.0004027004565799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.224489795918367</v>
       </c>
       <c r="H2" t="n">
-        <v>0.461538461538462</v>
+        <v>0.530612244897959</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.675</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0862514637002342</v>
+        <v>-0.169812941197875</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0031075393812176</v>
+        <v>-0.477793805484872</v>
       </c>
       <c r="M2" t="n">
-        <v>0.340646190004818</v>
+        <v>-0.0310004092531417</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7779946222569</v>
+        <v>-28.3021568663125</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.125706373985365</v>
+        <v>0.201427776854012</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.943396226415094</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.37</v>
+        <v>10.46</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.08873680618744351</v>
+        <v>-0.111295113784521</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.19904571123058</v>
+        <v>-0.279780964586375</v>
       </c>
       <c r="M3" t="n">
-        <v>0.022571285526848</v>
+        <v>0.105637437862195</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.85570690633986</v>
+        <v>-1.06400682394379</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.058904178889236</v>
+        <v>0.122720806423422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.113207547169811</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.39622641509434</v>
+        <v>0.452830188679245</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0011207185671471</v>
+        <v>0.000717443029943</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0002137873865185</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002574356335413</v>
+        <v>0.0018095178273171</v>
       </c>
       <c r="N4" t="n">
-        <v>10.1883506104285</v>
+        <v>5.97869191619192</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.762245191322076</v>
+        <v>0.696383733787489</v>
       </c>
       <c r="G5" t="n">
         <v>0.0188679245283019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8490566037735851</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>-30.3981496444732</v>
+        <v>-10.3687139277885</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.139644806141</v>
+        <v>-71.2622754436224</v>
       </c>
       <c r="M5" t="n">
-        <v>35.9130368677323</v>
+        <v>34.228956959963</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.41418284011541</v>
+        <v>-3.34474642831886</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.739202677074717</v>
+        <v>0.392751157736689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.375</v>
+        <v>0.34</v>
       </c>
       <c r="H6" t="n">
-        <v>0.770833333333333</v>
+        <v>0.74</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0130309948988421</v>
+        <v>0.0153618826322858</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0004874091765822</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0022420738689809</v>
+        <v>-0.000873570902729</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0022288637861609</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.74038345011944</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.244427730025575</v>
+        <v>0.601264806579953</v>
       </c>
       <c r="G7" t="n">
         <v>0.226415094339623</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0004617572692793</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005671583850931</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.369149172158817</v>
+        <v>0.16114979793596</v>
       </c>
       <c r="G8" t="n">
         <v>0.169811320754717</v>
@@ -1134,16 +1134,16 @@
         <v>0.093</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001248291182501</v>
+        <v>0.015887706043956</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0039447773596091</v>
+        <v>-0.0024144182409052</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0198090896950995</v>
+        <v>0.0290956051928293</v>
       </c>
       <c r="N8" t="n">
-        <v>0.134224858333517</v>
+        <v>17.0835548859742</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.013528233463953</v>
+        <v>0.137926794366579</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.679245283018868</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.1</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0470566883848135</v>
+        <v>-0.0175971688410115</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0833797442999351</v>
+        <v>-0.0597064104704379</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0128612966115813</v>
+        <v>0.0090807238732703</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.580946770182883</v>
+        <v>-0.217921595554322</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.172185858490466</v>
+        <v>0.0837204454831562</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="H10" t="n">
-        <v>0.528301886792453</v>
+        <v>0.5094339622641511</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1312,16 +1312,16 @@
         <v>0.12</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0012482911825017</v>
+        <v>0.0075018642072213</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01696072408427</v>
+        <v>0.0313548424547425</v>
       </c>
       <c r="N10" t="n">
-        <v>1.04024265208476</v>
+        <v>6.25155350601779</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.961506824752471</v>
+        <v>0.21908457524617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0188679245283019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.641509433962264</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>0.52</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.19253177966102</v>
+        <v>0.014478239650258</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.66191957670816</v>
+        <v>-0.0132097649186257</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0482117636787931</v>
       </c>
       <c r="N11" t="n">
-        <v>-12.8972457627119</v>
+        <v>2.78427685581885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.608866099130938</v>
+        <v>0.09605023850726881</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.660377358490566</v>
+        <v>0.8490566037735851</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.52</v>
+        <v>0.054</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0050424669867947</v>
+        <v>0.0035916547587711</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0411213261668824</v>
+        <v>-0.001340058771433</v>
       </c>
       <c r="M12" t="n">
-        <v>0.027804736218371</v>
+        <v>0.007931183116913799</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.969705189768216</v>
+        <v>6.65121251624279</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.593994988380682</v>
+        <v>0.0604096932678354</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.886792452830189</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.055</v>
+        <v>10.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0012976135310472</v>
+        <v>1.88532008086253</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0075935176698219</v>
+        <v>-0.17329031632446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0049358108108108</v>
+        <v>7.20465659340659</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.35929732917685</v>
+        <v>17.7860384987032</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.973386457394257</v>
+        <v>0.933526857174009</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981132075471698</v>
+        <v>0.47</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>10.6</v>
+        <v>0.355</v>
       </c>
       <c r="K14" t="n">
-        <v>-3.29137365861838</v>
+        <v>0.0174577193317518</v>
       </c>
       <c r="L14" t="n">
-        <v>-9.678558117291679</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.20565673025009</v>
+        <v>0.0565214494106707</v>
       </c>
       <c r="N14" t="n">
-        <v>-31.0506948926262</v>
+        <v>4.91766741739488</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.999353678664185</v>
+        <v>0.355328227133495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.135922330097087</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.466019417475728</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>10.37</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0565482054890922</v>
+        <v>-0.0035439740403022</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0206822054603856</v>
+        <v>-0.0451545329670329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.104462223183071</v>
+        <v>0.0245168477189794</v>
       </c>
       <c r="N15" t="n">
-        <v>14.137051372273</v>
+        <v>-0.034175255933484</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0002236384830572</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0892857142857143</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.399532080490652</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.910714285714286</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.325</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00332347588717</v>
+        <v>0.0005458965414795001</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0323587588379641</v>
+        <v>0.0002690198737475</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0250519640162578</v>
+        <v>0.0008369647231382</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0321886284471679</v>
+        <v>6.0655171275508</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0011144499577113</v>
+        <v>0.753808526390338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.116071428571429</v>
+        <v>0.0089285714285714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.214285714285714</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008500000000000001</v>
+        <v>330</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005733908948194</v>
+        <v>-6.09088382434686</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002300972746753</v>
+        <v>-24.4489060222539</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009139350519545</v>
+        <v>10.1003452575742</v>
       </c>
       <c r="N17" t="n">
-        <v>6.74577523317018</v>
+        <v>-1.8457223710142</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.271403480894812</v>
+        <v>0.0026786897113704</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0089285714285714</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="H18" t="n">
-        <v>0.75</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>0.0103334506487411</v>
       </c>
       <c r="K18" t="n">
-        <v>5.86686334990447</v>
+        <v>0.000693404992213</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.48701298701299</v>
+        <v>1.97061182293365e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>29.0351530356386</v>
+        <v>0.0012629454742475</v>
       </c>
       <c r="N18" t="n">
-        <v>1.77783737875893</v>
+        <v>6.71029470971127</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0586295493050574</v>
+        <v>0.0255996809554475</v>
       </c>
       <c r="G19" t="n">
-        <v>0.538461538461538</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6057692307692309</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I19" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0074541325631722</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
-        <v>2.90972325384297e-05</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000595841276796</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="N19" t="n">
-        <v>0.390350349847374</v>
+        <v>3.5738747553816</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.147208571086561</v>
+        <v>0.0002164563434388</v>
       </c>
       <c r="G20" t="n">
-        <v>0.214285714285714</v>
+        <v>0.276785714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>0.125</v>
+        <v>0.633928571428571</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.04775</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0018992200328407</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0001381647520477</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0002496582365003</v>
+        <v>0.0067948803784967</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.97742415254602</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0073858173639143</v>
+        <v>0.134213599827458</v>
       </c>
       <c r="G21" t="n">
-        <v>0.321428571428571</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.607142857142857</v>
+        <v>0.522935779816514</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0372</v>
+        <v>8.15</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0012423469387755</v>
+        <v>-0.0083086897179252</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0195974590505178</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0054659547513952</v>
+        <v>0.0047884402013299</v>
       </c>
       <c r="N21" t="n">
-        <v>3.33964230853632</v>
+        <v>-0.101947113103377</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.77708966265915</v>
+        <v>0.0012533706047964</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="H22" t="n">
-        <v>0.568807339449541</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.109999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0087390357853998</v>
+        <v>0.0037538540596094</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0079981628862655</v>
+        <v>0.0005433294129944</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0199408553230205</v>
+        <v>0.0100210539009718</v>
       </c>
       <c r="N22" t="n">
-        <v>0.107756298217014</v>
+        <v>4.17094895512162</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0020557943525781</v>
+        <v>0.0108575517645438</v>
       </c>
       <c r="G23" t="n">
-        <v>0.151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.474747474747475</v>
+        <v>0.598214285714286</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0025085851648351</v>
+        <v>0.015051510989011</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005457100192954001</v>
+        <v>0.0033092969024837</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0049897577879821</v>
+        <v>0.0248509185418235</v>
       </c>
       <c r="N23" t="n">
-        <v>3.58369309262166</v>
+        <v>2.95127666451196</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.67541664165592</v>
+        <v>0.247753065915828</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0089285714285714</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.535714285714286</v>
+        <v>0.651785714285714</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>17.5</v>
+        <v>0.0545</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.07108797197353051</v>
+        <v>0.0007471914363831</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.0000556911063</v>
+        <v>-0.0009290588176644</v>
       </c>
       <c r="M24" t="n">
-        <v>0.333409402099498</v>
+        <v>0.0023935166338414</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.406216982705889</v>
+        <v>1.37099346125351</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0744182734383548</v>
+        <v>0.768502674119604</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.625</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.51</v>
+        <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0073931490852471</v>
+        <v>-0.207914614121511</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0002779049712778</v>
+        <v>-0.735318440195044</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0179202154201155</v>
+        <v>0.470872914360926</v>
       </c>
       <c r="N25" t="n">
-        <v>1.44963707553866</v>
+        <v>-0.990069591054813</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.301322239240622</v>
+        <v>0.628384806475438</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.102941176470588</v>
       </c>
       <c r="H26" t="n">
-        <v>0.642857142857143</v>
+        <v>0.433823529411765</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.054</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005257587019579</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0012248806201848</v>
+        <v>-0.0105322130361606</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0021153474903474</v>
+        <v>0.0179250775787457</v>
       </c>
       <c r="N26" t="n">
-        <v>0.973627225848039</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.92892742363082</v>
+        <v>0.018966299110191</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.982142857142857</v>
+        <v>0.851351351351351</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>17.6</v>
+        <v>10.39</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.317869458128079</v>
+        <v>-0.0384923887587824</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.967721577148785</v>
+        <v>-0.07094440580247389</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0171255614126957</v>
+        <v>-0.0049862676291736</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.80607646663681</v>
+        <v>-0.370475348977694</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.994699767360106</v>
+        <v>0.177629525944592</v>
       </c>
       <c r="G28" t="n">
-        <v>0.152173913043478</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.398550724637681</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0229188454298264</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005506214504464</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.046506824362795</v>
+        <v>0.0002760770975056</v>
       </c>
       <c r="N28" t="n">
-        <v>5.7297113574566</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.660707909787805</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0066666666666666</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00572738964366</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.87248322147651</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.39</v>
+        <v>330</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0499158064279963</v>
+        <v>-2.29076655052265</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0919622331691296</v>
+        <v>-12.5984498539141</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0134833543933662</v>
+        <v>8.52401204428134</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.480421621058674</v>
+        <v>-0.69417168197656</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.582654496228753</v>
+        <v>0.375857052749727</v>
       </c>
       <c r="G30" t="n">
-        <v>0.12</v>
+        <v>0.450704225352113</v>
       </c>
       <c r="H30" t="n">
-        <v>0.18</v>
+        <v>0.669014084507042</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01</v>
+        <v>0.0114686702880563</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0002066478076379</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001683337507225</v>
+        <v>0.0001769557710031</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.894888315918464</v>
+        <v>0.179763014649575</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0066666666666666</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.753333333333333</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>376</v>
+        <v>8.145</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.80120481927711</v>
+        <v>-0.004276932084309</v>
       </c>
       <c r="L31" t="n">
-        <v>-23.6592763297429</v>
+        <v>-0.01197602679864</v>
       </c>
       <c r="M31" t="n">
-        <v>2.98852170163747</v>
+        <v>0.0035834721410432</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.3407459625737</v>
+        <v>-0.0525099089540705</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,11 +3266,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3280,14 +3276,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.383603521734646</v>
+        <v>0.0151817019913927</v>
       </c>
       <c r="G32" t="n">
-        <v>0.492957746478873</v>
+        <v>0.116788321167883</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6338028169014081</v>
+        <v>0.547445255474453</v>
       </c>
       <c r="I32" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0104350001207981</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0013881498935846</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.4430629701895e-05</v>
+        <v>0.0032841733610869</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.95514069518969</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3355,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.864499189416274</v>
+        <v>0.0309685167097241</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.537414965986395</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.130000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0066532607099722</v>
+        <v>0.0061128692967654</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0024420604738278</v>
+        <v>0.0001005050685784</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0149081632653058</v>
+        <v>0.01140002330737</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0818359250919093</v>
+        <v>1.19860182289519</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,46 +3458,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0037149080152177</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0066666666666666</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.139100322998483</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.131386861313869</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.562043795620438</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0505</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0004300431711146</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.000555334715026</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0015571892365359</v>
+        <v>0.0024311741526421</v>
       </c>
       <c r="N34" t="n">
-        <v>0.614347387306571</v>
+        <v>2.95211153768438</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.348957934159712</v>
+        <v>0.309257879445651</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.533333333333333</v>
+        <v>0.96</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.51</v>
+        <v>15.45</v>
       </c>
       <c r="K35" t="n">
-        <v>0.00091547343787</v>
+        <v>0.156154161131817</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.003625517332146</v>
+        <v>-0.188650026879561</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0066469517743403</v>
+        <v>0.7561911751434161</v>
       </c>
       <c r="N35" t="n">
-        <v>0.179504595660793</v>
+        <v>1.01070654454251</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3627,188 +3627,6 @@
         </is>
       </c>
       <c r="W35" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pongaroa at d/s Pongaroa STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0603115222896619</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0066666666666666</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.546666666666667</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0505</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.0008822463768115</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.0017992610837438</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.74702252833979</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1870776.934</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5506391.518</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Pongaroa at d/s Pongaroa STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.573974037599294</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.973154362416107</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.0279885057471264</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.257598185054437</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.310848894858951</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.182931410111937</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1870776.934</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5506391.518</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Puketoi ki Tai</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Owahanga</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Owha_1</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
+++ b/trend_results/Rivers/PongaroaatdsPongaroaSTP_e3b7b9760b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -142,28 +142,34 @@
     <t>Unlikely increasing</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,31 +648,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.0004027004565799</v>
+        <v>0.001008400311138</v>
       </c>
       <c r="G2">
-        <v>0.224489795918367</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="H2">
-        <v>0.530612244897959</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.245</v>
       </c>
       <c r="K2">
-        <v>-0.169812941197875</v>
+        <v>-0.206915024630542</v>
       </c>
       <c r="L2">
-        <v>-0.477793805484872</v>
+        <v>-0.504339395405288</v>
       </c>
       <c r="M2">
-        <v>-0.0310004092531417</v>
+        <v>-0.0428623046608239</v>
       </c>
       <c r="N2">
-        <v>-28.3021568663125</v>
+        <v>-84.45511209409869</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -681,19 +687,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,13 +719,13 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.201427776854012</v>
+        <v>0.317935625425346</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.942307692307692</v>
+        <v>0.9807692307692309</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -728,16 +734,16 @@
         <v>10.46</v>
       </c>
       <c r="K3">
-        <v>-0.111295113784521</v>
+        <v>-0.0641164643165292</v>
       </c>
       <c r="L3">
-        <v>-0.279780964586375</v>
+        <v>-0.260054502614161</v>
       </c>
       <c r="M3">
-        <v>0.105637437862195</v>
+        <v>0.126411288847216</v>
       </c>
       <c r="N3">
-        <v>-1.06400682394379</v>
+        <v>-0.612968110100662</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -752,19 +758,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,31 +790,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.122720806423422</v>
+        <v>0.6804848462787489</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.452830188679245</v>
+        <v>0.433962264150943</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="K4">
-        <v>0.000717443029943</v>
+        <v>-0.000220637084621</v>
       </c>
       <c r="L4">
-        <v>-0.0002137873865185</v>
+        <v>-0.0014490487784408</v>
       </c>
       <c r="M4">
-        <v>0.0018095178273171</v>
+        <v>0.0006436592234163999</v>
       </c>
       <c r="N4">
-        <v>5.97869191619192</v>
+        <v>-2.20637084621082</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -823,19 +829,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -849,37 +855,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.696383733787489</v>
+        <v>0.917438204935803</v>
       </c>
       <c r="G5">
-        <v>0.0188679245283019</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="H5">
-        <v>0.886792452830189</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>310</v>
       </c>
       <c r="K5">
-        <v>-10.3687139277885</v>
+        <v>-34.4846840659341</v>
       </c>
       <c r="L5">
-        <v>-71.2622754436224</v>
+        <v>-105.6632952266</v>
       </c>
       <c r="M5">
-        <v>34.228956959963</v>
+        <v>0.306391526263578</v>
       </c>
       <c r="N5">
-        <v>-3.34474642831886</v>
+        <v>-11.1240916341723</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
@@ -894,19 +900,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,34 +929,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.392751157736689</v>
+        <v>0.183155589423569</v>
       </c>
       <c r="G6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0153618826322858</v>
+        <v>0.0130309948988421</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0011930193056769</v>
       </c>
       <c r="L6">
-        <v>-0.000873570902729</v>
+        <v>-0.0008763621891917</v>
       </c>
       <c r="M6">
-        <v>0.0022288637861609</v>
+        <v>0.0049965281307536</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9.155243440260991</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
@@ -965,19 +971,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -994,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.601264806579953</v>
+        <v>0.996859990578511</v>
       </c>
       <c r="G7">
-        <v>0.226415094339623</v>
+        <v>0.264150943396226</v>
       </c>
       <c r="H7">
         <v>0.169811320754717</v>
@@ -1012,22 +1018,22 @@
         <v>0.004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0006136320819286</v>
       </c>
       <c r="L7">
-        <v>-0.0004617572692793</v>
+        <v>-0.0010435714285714</v>
       </c>
       <c r="M7">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-15.340802048215</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1870776.934</v>
@@ -1036,19 +1042,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1065,40 +1071,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.16114979793596</v>
+        <v>0.466599847306076</v>
       </c>
       <c r="G8">
-        <v>0.169811320754717</v>
+        <v>0.207547169811321</v>
       </c>
       <c r="H8">
-        <v>0.754716981132076</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.093</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K8">
-        <v>0.015887706043956</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0024144182409052</v>
+        <v>-0.0063570545402118</v>
       </c>
       <c r="M8">
-        <v>0.0290956051928293</v>
+        <v>0.0117320490047115</v>
       </c>
       <c r="N8">
-        <v>17.0835548859742</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1870776.934</v>
@@ -1107,19 +1113,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1139,37 +1145,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.137926794366579</v>
+        <v>0.931218206090993</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.692307692307692</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.074999999999999</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.0175971688410115</v>
+        <v>0.0269898077149935</v>
       </c>
       <c r="L9">
-        <v>-0.0597064104704379</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0090807238732703</v>
+        <v>0.0532772735151744</v>
       </c>
       <c r="N9">
-        <v>-0.217921595554322</v>
+        <v>0.333413313341488</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1870776.934</v>
@@ -1178,16 +1184,16 @@
         <v>5506391.518</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1204,40 +1210,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>0.0837204454831562</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.0754716981132075</v>
+        <v>0.0943396226415094</v>
       </c>
       <c r="H10">
-        <v>0.5094339622641511</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K10">
-        <v>0.0075018642072213</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-0.0100097482130894</v>
       </c>
       <c r="M10">
-        <v>0.0313548424547425</v>
+        <v>0.0125183852603257</v>
       </c>
       <c r="N10">
-        <v>6.25155350601779</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1870776.934</v>
@@ -1246,19 +1252,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,31 +1284,31 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.21908457524617</v>
+        <v>0.848168700516693</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.716981132075472</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="K11">
-        <v>0.014478239650258</v>
+        <v>-0.0158116883116883</v>
       </c>
       <c r="L11">
-        <v>-0.0132097649186257</v>
+        <v>-0.0477711352953698</v>
       </c>
       <c r="M11">
-        <v>0.0482117636787931</v>
+        <v>0.0118714248917246</v>
       </c>
       <c r="N11">
-        <v>2.78427685581885</v>
+        <v>-3.10033104150751</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
@@ -1317,19 +1323,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,37 +1355,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.09605023850726881</v>
+        <v>0.860353442650205</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.8490566037735851</v>
+        <v>0.8301886792452829</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="K12">
-        <v>0.0035916547587711</v>
+        <v>-0.0027545400683421</v>
       </c>
       <c r="L12">
-        <v>-0.001340058771433</v>
+        <v>-0.0079995631257831</v>
       </c>
       <c r="M12">
-        <v>0.007931183116913799</v>
+        <v>0.0016462825945572</v>
       </c>
       <c r="N12">
-        <v>6.65121251624279</v>
+        <v>-5.19724541196632</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1870776.934</v>
@@ -1388,19 +1394,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,13 +1426,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0604096932678354</v>
+        <v>0.144243731661745</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.943396226415094</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1435,22 +1441,22 @@
         <v>10.6</v>
       </c>
       <c r="K13">
-        <v>1.88532008086253</v>
+        <v>0.549380151098901</v>
       </c>
       <c r="L13">
-        <v>-0.17329031632446</v>
+        <v>-0.27882043560893</v>
       </c>
       <c r="M13">
-        <v>7.20465659340659</v>
+        <v>5.45213410904403</v>
       </c>
       <c r="N13">
-        <v>17.7860384987032</v>
+        <v>5.18283161414058</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1870776.934</v>
@@ -1459,19 +1465,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,37 +1497,37 @@
         <v>38</v>
       </c>
       <c r="F14">
-        <v>0.933526857174009</v>
+        <v>0.757980888935174</v>
       </c>
       <c r="G14">
-        <v>0.14</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="H14">
-        <v>0.47</v>
+        <v>0.478723404255319</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>0.355</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>0.0174577193317518</v>
+        <v>0.0068656015037594</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.0057802451309668</v>
       </c>
       <c r="M14">
-        <v>0.0565214494106707</v>
+        <v>0.0352531612558193</v>
       </c>
       <c r="N14">
-        <v>4.91766741739488</v>
+        <v>2.28853383458647</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1870776.934</v>
@@ -1530,19 +1536,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,13 +1568,13 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.355328227133495</v>
+        <v>0.545383820260964</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.864864864864865</v>
+        <v>0.882882882882883</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1577,22 +1583,22 @@
         <v>10.37</v>
       </c>
       <c r="K15">
-        <v>-0.0035439740403022</v>
+        <v>0.0014565113150607</v>
       </c>
       <c r="L15">
-        <v>-0.0451545329670329</v>
+        <v>-0.043692748546938</v>
       </c>
       <c r="M15">
-        <v>0.0245168477189794</v>
+        <v>0.0379844006568143</v>
       </c>
       <c r="N15">
-        <v>-0.034175255933484</v>
+        <v>0.014045432160663</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1870776.934</v>
@@ -1601,19 +1607,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,7 +1639,7 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0002236384830572</v>
+        <v>0.01539225639972</v>
       </c>
       <c r="G16">
         <v>0.0892857142857143</v>
@@ -1648,22 +1654,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K16">
-        <v>0.0005458965414795001</v>
+        <v>0.0003152783772119</v>
       </c>
       <c r="L16">
-        <v>0.0002690198737475</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0008369647231382</v>
+        <v>0.000571292032019</v>
       </c>
       <c r="N16">
-        <v>6.0655171275508</v>
+        <v>3.50309308013236</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1870776.934</v>
@@ -1672,19 +1678,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,37 +1710,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.753808526390338</v>
+        <v>0.963110319161283</v>
       </c>
       <c r="G17">
-        <v>0.0089285714285714</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H17">
-        <v>0.767857142857143</v>
+        <v>0.758928571428571</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K17">
-        <v>-6.09088382434686</v>
+        <v>-16.0597827564506</v>
       </c>
       <c r="L17">
-        <v>-24.4489060222539</v>
+        <v>-34.9244336189908</v>
       </c>
       <c r="M17">
-        <v>10.1003452575742</v>
+        <v>-1.2723191035659</v>
       </c>
       <c r="N17">
-        <v>-1.8457223710142</v>
+        <v>-4.94147161736942</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1870776.934</v>
@@ -1743,19 +1749,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1769,37 +1775,37 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0026786897113704</v>
+        <v>0.0011372176823514</v>
       </c>
       <c r="G18">
-        <v>0.485714285714286</v>
+        <v>0.457943925233645</v>
       </c>
       <c r="H18">
-        <v>0.657142857142857</v>
+        <v>0.682242990654206</v>
       </c>
       <c r="I18">
         <v>19</v>
       </c>
       <c r="J18">
-        <v>0.0103334506487411</v>
+        <v>0.0111862128875431</v>
       </c>
       <c r="K18">
-        <v>0.000693404992213</v>
+        <v>0.0009543200719043</v>
       </c>
       <c r="L18">
-        <v>1.97061182293365E-06</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0012629454742475</v>
+        <v>0.0016471817581857</v>
       </c>
       <c r="N18">
-        <v>6.71029470971127</v>
+        <v>8.53121678890119</v>
       </c>
       <c r="O18" t="s">
         <v>39</v>
@@ -1814,19 +1820,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1840,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19">
-        <v>0.0255996809554475</v>
+        <v>0.476472716835343</v>
       </c>
       <c r="G19">
-        <v>0.25</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="H19">
         <v>0.107142857142857</v>
@@ -1861,22 +1867,22 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>0.0001429549902152</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0002859099804305</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.5738747553816</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1870776.934</v>
@@ -1885,19 +1891,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,31 +1923,31 @@
         <v>38</v>
       </c>
       <c r="F20">
-        <v>0.0002164563434388</v>
+        <v>0.008569155121756201</v>
       </c>
       <c r="G20">
-        <v>0.276785714285714</v>
+        <v>0.267857142857143</v>
       </c>
       <c r="H20">
-        <v>0.633928571428571</v>
+        <v>0.616071428571429</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.04775</v>
+        <v>0.0475</v>
       </c>
       <c r="K20">
-        <v>0.0018992200328407</v>
+        <v>0.000836195054945</v>
       </c>
       <c r="L20">
-        <v>0.0001381647520477</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0067948803784967</v>
+        <v>0.0046385540761556</v>
       </c>
       <c r="N20">
-        <v>3.97742415254602</v>
+        <v>1.76041064198959</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
@@ -1956,19 +1962,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1988,13 +1994,13 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.134213599827458</v>
+        <v>0.246622994170524</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.522935779816514</v>
+        <v>0.522522522522523</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2003,16 +2009,16 @@
         <v>8.15</v>
       </c>
       <c r="K21">
-        <v>-0.0083086897179252</v>
+        <v>-0.0049931647300069</v>
       </c>
       <c r="L21">
-        <v>-0.0195974590505178</v>
+        <v>-0.0149749246523221</v>
       </c>
       <c r="M21">
-        <v>0.0047884402013299</v>
+        <v>0.0055793023549525</v>
       </c>
       <c r="N21">
-        <v>-0.101947113103377</v>
+        <v>-0.0612658249080607</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
@@ -2027,16 +2033,16 @@
         <v>5506391.518</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,16 +2059,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22">
-        <v>0.0012533706047964</v>
+        <v>0.0187251229980024</v>
       </c>
       <c r="G22">
-        <v>0.151515151515152</v>
+        <v>0.174757281553398</v>
       </c>
       <c r="H22">
-        <v>0.444444444444444</v>
+        <v>0.349514563106796</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2071,22 +2077,22 @@
         <v>0.09</v>
       </c>
       <c r="K22">
-        <v>0.0037538540596094</v>
+        <v>0.0021384660421545</v>
       </c>
       <c r="L22">
-        <v>0.0005433294129944</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0100210539009718</v>
+        <v>0.006441362093472</v>
       </c>
       <c r="N22">
-        <v>4.17094895512162</v>
+        <v>2.37607338017174</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1870776.934</v>
@@ -2095,19 +2101,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,13 +2133,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0108575517645438</v>
+        <v>0.181711724350911</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.598214285714286</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2142,22 +2148,22 @@
         <v>0.51</v>
       </c>
       <c r="K23">
-        <v>0.015051510989011</v>
+        <v>0.0050011410314924</v>
       </c>
       <c r="L23">
-        <v>0.0033092969024837</v>
+        <v>-0.0037579755725755</v>
       </c>
       <c r="M23">
-        <v>0.0248509185418235</v>
+        <v>0.0191525867548943</v>
       </c>
       <c r="N23">
-        <v>2.95127666451196</v>
+        <v>0.980615888527936</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1870776.934</v>
@@ -2166,19 +2172,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,31 +2204,31 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.247753065915828</v>
+        <v>0.821331086652891</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.651785714285714</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0545</v>
+        <v>0.054</v>
       </c>
       <c r="K24">
-        <v>0.0007471914363831</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="L24">
-        <v>-0.0009290588176644</v>
+        <v>-0.0023451043338683</v>
       </c>
       <c r="M24">
-        <v>0.0023935166338414</v>
+        <v>0.0007980935804009</v>
       </c>
       <c r="N24">
-        <v>1.37099346125351</v>
+        <v>-1.58404892011449</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
@@ -2237,19 +2243,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.768502674119604</v>
+        <v>0.816814502593246</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2281,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21</v>
+        <v>19.05</v>
       </c>
       <c r="K25">
-        <v>-0.207914614121511</v>
+        <v>-0.168959183673469</v>
       </c>
       <c r="L25">
-        <v>-0.735318440195044</v>
+        <v>-0.701183921727572</v>
       </c>
       <c r="M25">
-        <v>0.470872914360926</v>
+        <v>0.203460426076329</v>
       </c>
       <c r="N25">
-        <v>-0.990069591054813</v>
+        <v>-0.886924848679629</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>1870776.934</v>
@@ -2308,19 +2314,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2334,43 +2340,43 @@
         <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>0.628384806475438</v>
+        <v>0.339735780917916</v>
       </c>
       <c r="G26">
-        <v>0.102941176470588</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="H26">
-        <v>0.433823529411765</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.4</v>
+        <v>0.355</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0038626993901008</v>
       </c>
       <c r="L26">
-        <v>-0.0105322130361606</v>
+        <v>-0.0132692607189251</v>
       </c>
       <c r="M26">
-        <v>0.0179250775787457</v>
+        <v>0.008331747499325999</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.08808433523968</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1870776.934</v>
@@ -2379,19 +2385,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,37 +2417,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.018966299110191</v>
+        <v>0.257231433559657</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.851351351351351</v>
+        <v>0.832258064516129</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.39</v>
+        <v>10.37</v>
       </c>
       <c r="K27">
-        <v>-0.0384923887587824</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="L27">
-        <v>-0.07094440580247389</v>
+        <v>-0.036726870022153</v>
       </c>
       <c r="M27">
-        <v>-0.0049862676291736</v>
+        <v>0.0105403886177542</v>
       </c>
       <c r="N27">
-        <v>-0.370475348977694</v>
+        <v>-0.0483815846641294</v>
       </c>
       <c r="O27" t="s">
         <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q27">
         <v>1870776.934</v>
@@ -2450,19 +2456,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,13 +2488,13 @@
         <v>38</v>
       </c>
       <c r="F28">
-        <v>0.177629525944592</v>
+        <v>0.36419770459923</v>
       </c>
       <c r="G28">
-        <v>0.0933333333333333</v>
+        <v>0.089171974522293</v>
       </c>
       <c r="H28">
-        <v>0.166666666666667</v>
+        <v>0.159235668789809</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2500,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-8.115552633966219E-05</v>
       </c>
       <c r="M28">
-        <v>0.0002760770975056</v>
+        <v>0.0001688926382845</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2512,7 +2518,7 @@
         <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1870776.934</v>
@@ -2521,19 +2527,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,37 +2559,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.660707909787805</v>
+        <v>0.883286970913304</v>
       </c>
       <c r="G29">
-        <v>0.0066666666666666</v>
+        <v>0.0127388535031847</v>
       </c>
       <c r="H29">
-        <v>0.76</v>
+        <v>0.7579617834394899</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K29">
-        <v>-2.29076655052265</v>
+        <v>-6.36622785493449</v>
       </c>
       <c r="L29">
-        <v>-12.5984498539141</v>
+        <v>-16.8033448047215</v>
       </c>
       <c r="M29">
-        <v>8.52401204428134</v>
+        <v>2.18585904015073</v>
       </c>
       <c r="N29">
-        <v>-0.69417168197656</v>
+        <v>-1.952830630348</v>
       </c>
       <c r="O29" t="s">
         <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q29">
         <v>1870776.934</v>
@@ -2592,19 +2598,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2618,25 +2624,25 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.375857052749727</v>
+        <v>0.309827073668814</v>
       </c>
       <c r="G30">
-        <v>0.450704225352113</v>
+        <v>0.449664429530201</v>
       </c>
       <c r="H30">
-        <v>0.669014084507042</v>
+        <v>0.664429530201342</v>
       </c>
       <c r="I30">
         <v>21</v>
       </c>
       <c r="J30">
-        <v>0.0114686702880563</v>
+        <v>0.01229796205199</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2645,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0001769557710031</v>
+        <v>0.0001824430375882</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2663,19 +2669,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2683,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -2692,40 +2698,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.179763014649575</v>
+        <v>0.104422505027804</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.292993630573248</v>
       </c>
       <c r="H31">
-        <v>0.493150684931507</v>
+        <v>0.089171974522293</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>8.145</v>
+        <v>0.003</v>
       </c>
       <c r="K31">
-        <v>-0.004276932084309</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.01197602679864</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0035834721410432</v>
+        <v>0.0001107520020803</v>
       </c>
       <c r="N31">
-        <v>-0.0525099089540705</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1870776.934</v>
@@ -2734,16 +2740,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2751,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -2763,37 +2772,37 @@
         <v>38</v>
       </c>
       <c r="F32">
-        <v>0.0151817019913927</v>
+        <v>0.0379205413718299</v>
       </c>
       <c r="G32">
-        <v>0.116788321167883</v>
+        <v>0.286624203821656</v>
       </c>
       <c r="H32">
-        <v>0.547445255474453</v>
+        <v>0.579617834394904</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0.07099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="K32">
-        <v>0.0013881498935846</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0032841733610869</v>
+        <v>0.0006324541634663</v>
       </c>
       <c r="N32">
-        <v>1.95514069518969</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q32">
         <v>1870776.934</v>
@@ -2802,19 +2811,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2822,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -2834,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.0309685167097241</v>
+        <v>0.144465464301969</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.533333333333333</v>
+        <v>0.477124183006536</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.51</v>
+        <v>8.16</v>
       </c>
       <c r="K33">
-        <v>0.0061128692967654</v>
+        <v>-0.0049459472468231</v>
       </c>
       <c r="L33">
-        <v>0.0001005050685784</v>
+        <v>-0.0114556967810898</v>
       </c>
       <c r="M33">
-        <v>0.01140002330737</v>
+        <v>0.0024232665355073</v>
       </c>
       <c r="N33">
-        <v>1.19860182289519</v>
+        <v>-0.0606120986130288</v>
       </c>
       <c r="O33" t="s">
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q33">
         <v>1870776.934</v>
@@ -2873,18 +2882,15 @@
         <v>5506391.518</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2893,49 +2899,49 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.0037149080152177</v>
+        <v>0.0730527555648461</v>
       </c>
       <c r="G34">
-        <v>0.0066666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="H34">
-        <v>0.533333333333333</v>
+        <v>0.486111111111111</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.0505</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="K34">
-        <v>0.0014908163265306</v>
+        <v>0.0007128220140515</v>
       </c>
       <c r="L34">
-        <v>0.000555334715026</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0.0024311741526421</v>
+        <v>0.0021808662629845</v>
       </c>
       <c r="N34">
-        <v>2.95211153768438</v>
+        <v>1.04061607890733</v>
       </c>
       <c r="O34" t="s">
         <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q34">
         <v>1870776.934</v>
@@ -2944,19 +2950,19 @@
         <v>5506391.518</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2964,7 +2970,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -2976,58 +2982,200 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.309257879445651</v>
+        <v>0.23765606716597</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.96</v>
+        <v>0.515923566878981</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>15.45</v>
+        <v>0.51</v>
       </c>
       <c r="K35">
-        <v>0.156154161131817</v>
+        <v>0.0028551939302556</v>
       </c>
       <c r="L35">
-        <v>-0.188650026879561</v>
+        <v>-0.0022387418809856</v>
       </c>
       <c r="M35">
-        <v>0.7561911751434161</v>
+        <v>0.008328454056340501</v>
       </c>
       <c r="N35">
-        <v>1.01070654454251</v>
+        <v>0.559841947108959</v>
       </c>
       <c r="O35" t="s">
         <v>39</v>
       </c>
       <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35">
+        <v>1870776.934</v>
+      </c>
+      <c r="R35">
+        <v>5506391.518</v>
+      </c>
+      <c r="S35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>0.132899165554315</v>
+      </c>
+      <c r="G36">
+        <v>0.0063694267515923</v>
+      </c>
+      <c r="H36">
+        <v>0.554140127388535</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.051</v>
+      </c>
+      <c r="K36">
+        <v>0.0006299249417022</v>
+      </c>
+      <c r="L36">
+        <v>-0.0002581414213391</v>
+      </c>
+      <c r="M36">
+        <v>0.0016305803571428</v>
+      </c>
+      <c r="N36">
+        <v>1.2351469445143</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>1870776.934</v>
+      </c>
+      <c r="R36">
+        <v>5506391.518</v>
+      </c>
+      <c r="S36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>0.716700906119519</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.961783439490446</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>15.6</v>
+      </c>
+      <c r="K37">
+        <v>-0.101774380010625</v>
+      </c>
+      <c r="L37">
+        <v>-0.321858845637996</v>
+      </c>
+      <c r="M37">
+        <v>0.250026534782888</v>
+      </c>
+      <c r="N37">
+        <v>-0.65239987186298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" t="s">
         <v>42</v>
       </c>
-      <c r="Q35">
-        <v>1870776.934</v>
-      </c>
-      <c r="R35">
-        <v>5506391.518</v>
-      </c>
-      <c r="S35" t="s">
-        <v>50</v>
-      </c>
-      <c r="T35" t="s">
-        <v>51</v>
-      </c>
-      <c r="U35" t="s">
-        <v>52</v>
-      </c>
-      <c r="V35" t="s">
-        <v>53</v>
-      </c>
-      <c r="W35" t="s">
-        <v>58</v>
+      <c r="Q37">
+        <v>1870776.934</v>
+      </c>
+      <c r="R37">
+        <v>5506391.518</v>
+      </c>
+      <c r="S37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
